--- a/datasets/nano_cap.xlsx
+++ b/datasets/nano_cap.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali_ahad/Desktop/rmsc4002/part1/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B646D3BC-E195-5542-B17E-CAEF54CEFE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="basic_materials" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="capital_goods" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="consumer_cyclical" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="consumer_noncyclical" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="energy" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="financial" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="healthcare" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="services" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="technology" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="transportation" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="utilities" sheetId="11" r:id="rId13"/>
+    <sheet name="basic_materials" sheetId="1" r:id="rId1"/>
+    <sheet name="capital_goods" sheetId="2" r:id="rId2"/>
+    <sheet name="consumer_cyclical" sheetId="3" r:id="rId3"/>
+    <sheet name="consumer_noncyclical" sheetId="4" r:id="rId4"/>
+    <sheet name="energy" sheetId="5" r:id="rId5"/>
+    <sheet name="financial" sheetId="6" r:id="rId6"/>
+    <sheet name="healthcare" sheetId="7" r:id="rId7"/>
+    <sheet name="services" sheetId="8" r:id="rId8"/>
+    <sheet name="technology" sheetId="9" r:id="rId9"/>
+    <sheet name="transportation" sheetId="10" r:id="rId10"/>
+    <sheet name="utilities" sheetId="11" r:id="rId11"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -512,102 +521,371 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.29"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -629,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -640,7 +918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -651,7 +929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -662,7 +940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -674,21 +952,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
@@ -710,7 +989,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -721,7 +1000,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>144</v>
       </c>
@@ -732,7 +1011,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
@@ -743,7 +1022,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
@@ -755,21 +1034,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -791,7 +1071,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>156</v>
       </c>
@@ -802,7 +1082,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
@@ -814,21 +1094,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -850,7 +1131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -861,7 +1142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -872,7 +1153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -883,7 +1164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -895,21 +1176,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +1202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -931,7 +1213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -942,7 +1224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -953,7 +1235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -964,7 +1246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -976,21 +1258,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1012,7 +1295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1023,7 +1306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -1034,7 +1317,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -1045,7 +1328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -1057,21 +1340,27 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -1093,7 +1382,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -1104,7 +1393,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -1115,7 +1404,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1126,7 +1415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -1138,21 +1427,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -1174,7 +1464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
@@ -1185,7 +1475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -1196,7 +1486,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -1207,7 +1497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
@@ -1219,21 +1509,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -1255,7 +1546,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
@@ -1266,7 +1557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -1277,7 +1568,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -1288,7 +1579,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -1300,21 +1591,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -1336,7 +1628,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
@@ -1347,7 +1639,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
@@ -1358,7 +1650,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
@@ -1369,7 +1661,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>120</v>
       </c>
@@ -1381,21 +1673,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
@@ -1417,7 +1710,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -1428,7 +1721,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
@@ -1439,7 +1732,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -1450,7 +1743,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
@@ -1462,6 +1755,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/nano_cap.xlsx
+++ b/datasets/nano_cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali_ahad/Desktop/rmsc4002/part1/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavon/Desktop/Yr 5/RMSC 4002/Project/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B646D3BC-E195-5542-B17E-CAEF54CEFE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FE502F-337A-8344-8A00-E6B5B2A2D3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15060" yWindow="980" windowWidth="14400" windowHeight="16540" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic_materials" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="160">
   <si>
     <t>AssetName</t>
   </si>
@@ -401,51 +401,6 @@
     <t>9.07M</t>
   </si>
   <si>
-    <t>MER</t>
-  </si>
-  <si>
-    <t>MTSL</t>
-  </si>
-  <si>
-    <t>5.34M</t>
-  </si>
-  <si>
-    <t>MoSys</t>
-  </si>
-  <si>
-    <t>MOSY</t>
-  </si>
-  <si>
-    <t>5.73M</t>
-  </si>
-  <si>
-    <t>TechnicalCommnicatons</t>
-  </si>
-  <si>
-    <t>TCCO</t>
-  </si>
-  <si>
-    <t>6.42M</t>
-  </si>
-  <si>
-    <t>Ameri</t>
-  </si>
-  <si>
-    <t>AMRH</t>
-  </si>
-  <si>
-    <t>7M</t>
-  </si>
-  <si>
-    <t>BridgelineDigital</t>
-  </si>
-  <si>
-    <t>BLIN</t>
-  </si>
-  <si>
-    <t>8.84M</t>
-  </si>
-  <si>
     <t>Sino-Global</t>
   </si>
   <si>
@@ -509,20 +464,59 @@
     <t>1.89M</t>
   </si>
   <si>
-    <t>SummitMidstreamPartnersLP3</t>
+    <t>Martin Midstream</t>
+  </si>
+  <si>
+    <t>MMLP</t>
+  </si>
+  <si>
+    <t>Summit Midstream Partners LP</t>
   </si>
   <si>
     <t>SMLP</t>
   </si>
   <si>
-    <t>9.13M</t>
+    <t>Charah Solutions</t>
+  </si>
+  <si>
+    <t>CHRA</t>
+  </si>
+  <si>
+    <t>Universal Security Instruments</t>
+  </si>
+  <si>
+    <t>UUU</t>
+  </si>
+  <si>
+    <t>BDR</t>
+  </si>
+  <si>
+    <t>TRT</t>
+  </si>
+  <si>
+    <t>CTEK</t>
+  </si>
+  <si>
+    <t>SVT</t>
+  </si>
+  <si>
+    <t>Blonder Tongue Labs</t>
+  </si>
+  <si>
+    <t>Trio-Tech</t>
+  </si>
+  <si>
+    <t>Auxilio</t>
+  </si>
+  <si>
+    <t>Servotronics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -530,6 +524,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -554,9 +554,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,9 +877,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -980,57 +979,57 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1043,9 +1042,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1062,35 +1063,49 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1284,9 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1351,14 +1368,9 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -1684,7 +1696,9 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1701,58 +1715,48 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
